--- a/Prosjekt/ArenaLogisticsDashboard/src/ALD Dokumentasjon/ArketyperTemplateVAQM.xlsx
+++ b/Prosjekt/ArenaLogisticsDashboard/src/ALD Dokumentasjon/ArketyperTemplateVAQM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmj\Documents\dips-ckm\Prosjekt\ArenaLogisticsDashboard\src\ALD Dokumentasjon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>Pasientavle - arketyper, skjema og VAQM</t>
   </si>
@@ -261,61 +261,139 @@
 openEHR-EHR-OBSERVATION.avpu.v1</t>
   </si>
   <si>
-    <t>ALD_Examinations</t>
-  </si>
-  <si>
-    <t>ALD_Status_hospital_orderly_services</t>
-  </si>
-  <si>
-    <t>ALD_Decubitus_risk_screening-1.0.0</t>
-  </si>
-  <si>
-    <t>ALD_Nutritional_risk_screening-1.0.1</t>
-  </si>
-  <si>
-    <t>ALD_Falls_risk_assesment-1.0.0</t>
-  </si>
-  <si>
-    <t>ALD_NEWS-1.0.0</t>
-  </si>
-  <si>
     <t>Nurse.oet</t>
   </si>
   <si>
     <t>Nurse.opt</t>
   </si>
   <si>
-    <t>ALD_Nurse-1.0.2</t>
-  </si>
-  <si>
-    <t>ALD_qSOFA-1.1.0</t>
-  </si>
-  <si>
     <t>Current_problem.oet</t>
   </si>
   <si>
     <t>Current_problem.opt</t>
   </si>
   <si>
-    <t>Vise status</t>
-  </si>
-  <si>
-    <t>Vise resultat. Annen kolonne som viser "neste news"</t>
-  </si>
-  <si>
-    <t>Sjekk kodeverk på status.</t>
-  </si>
-  <si>
     <t>Vise status og kommentar</t>
   </si>
   <si>
     <t>Template endres til evaluation.</t>
   </si>
   <si>
-    <t>Sjekk VAQM i demomiljø</t>
-  </si>
-  <si>
     <t>Pluto og hjerte</t>
+  </si>
+  <si>
+    <t>PB Patient Logistics 1.0</t>
+  </si>
+  <si>
+    <t>PB Scores 1.0</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Risk Antibiotika"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Undersøkelser"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Portør"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Måltid"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Aktuelt"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Flytteliste"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Tilsyn"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Plan"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Sykepleier"</t>
+  </si>
+  <si>
+    <t>PLO</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics PLO"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Scores Trykksårrisiko"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Scores Fallrisiko"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Scores Ernæring"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Scores Tromboserisiko"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Scores qSOFA"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Scores NEWS"</t>
+  </si>
+  <si>
+    <t>PB_Antibiotic_prophylaxis-1.0.3</t>
+  </si>
+  <si>
+    <t>PB_Current_problem-1.0.7</t>
+  </si>
+  <si>
+    <t>PB_Examinations-1.0.3</t>
+  </si>
+  <si>
+    <t>PB_Meals-1.0.4</t>
+  </si>
+  <si>
+    <t>PB_Moving_list-1.0.4</t>
+  </si>
+  <si>
+    <t>PB_Municipal_Care-1.0.4</t>
+  </si>
+  <si>
+    <t>PB_NEWS-1.0.0</t>
+  </si>
+  <si>
+    <t>PB_Falls_risk_assesment-1.0.0</t>
+  </si>
+  <si>
+    <t>PB_Decubitus_risk_screening-1.0.0</t>
+  </si>
+  <si>
+    <t>PB_Nurse-1.0.7</t>
+  </si>
+  <si>
+    <t>PB_Nutritional_risk_screening-1.0.4</t>
+  </si>
+  <si>
+    <t>PB_Plan-1.0.4</t>
+  </si>
+  <si>
+    <t>PB_qSOFA-1.0.4</t>
+  </si>
+  <si>
+    <t>PB_Referrals-1.0.2</t>
+  </si>
+  <si>
+    <t>PB_Status_hospital_orderly_services-1.0.2</t>
+  </si>
+  <si>
+    <t>PB_VTE_risk-1.0.12</t>
+  </si>
+  <si>
+    <t>Municipal_Care.opt</t>
+  </si>
+  <si>
+    <t>Municipal_Care.oet</t>
   </si>
 </sst>
 </file>
@@ -721,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +815,7 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -747,14 +825,14 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -773,8 +851,11 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,10 +869,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -805,13 +892,16 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -824,8 +914,17 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -839,13 +938,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -859,10 +961,16 @@
         <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -876,7 +984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -889,8 +997,17 @@
       <c r="D10" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -904,7 +1021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -918,7 +1035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -926,13 +1043,22 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -946,13 +1072,16 @@
         <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -966,10 +1095,10 @@
         <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -983,13 +1112,16 @@
         <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1002,8 +1134,17 @@
       <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1017,10 +1158,16 @@
         <v>65</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1033,8 +1180,17 @@
       <c r="D19" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1048,10 +1204,16 @@
         <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -1064,8 +1226,17 @@
       <c r="D21" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -1073,16 +1244,22 @@
         <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1096,7 +1273,25 @@
         <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Prosjekt/ArenaLogisticsDashboard/src/ALD Dokumentasjon/ArketyperTemplateVAQM.xlsx
+++ b/Prosjekt/ArenaLogisticsDashboard/src/ALD Dokumentasjon/ArketyperTemplateVAQM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>Pasientavle - arketyper, skjema og VAQM</t>
   </si>
@@ -273,15 +273,6 @@
     <t>Current_problem.opt</t>
   </si>
   <si>
-    <t>Vise status og kommentar</t>
-  </si>
-  <si>
-    <t>Template endres til evaluation.</t>
-  </si>
-  <si>
-    <t>Pluto og hjerte</t>
-  </si>
-  <si>
     <t>PB Patient Logistics 1.0</t>
   </si>
   <si>
@@ -394,6 +385,30 @@
   </si>
   <si>
     <t>Municipal_Care.oet</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Logistics Other"</t>
+  </si>
+  <si>
+    <t>PB_Other_information-1.0.5</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Risk Væskebalanse"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Risk PVK"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Risk SVK"</t>
+  </si>
+  <si>
+    <t>$ARENA-HEALTHRECORD-DOCUMENTCONCEPT/"PB Risk KAD"</t>
+  </si>
+  <si>
+    <t>PB_Other_information-1.0.1</t>
+  </si>
+  <si>
+    <t>PB Risk</t>
   </si>
 </sst>
 </file>
@@ -802,7 +817,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -869,13 +884,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,13 +907,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -938,13 +953,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,13 +976,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -983,6 +998,12 @@
       <c r="D9" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -998,13 +1019,13 @@
         <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1020,6 +1041,12 @@
       <c r="D11" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1034,6 +1061,12 @@
       <c r="D12" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1049,13 +1082,13 @@
         <v>78</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1072,13 +1105,13 @@
         <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1128,13 @@
         <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>123</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1112,13 +1151,13 @@
         <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1135,13 +1174,13 @@
         <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1158,13 +1197,13 @@
         <v>65</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1181,13 +1220,13 @@
         <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1204,13 +1243,13 @@
         <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1227,13 +1266,13 @@
         <v>69</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1250,13 +1289,13 @@
         <v>76</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,26 +1311,37 @@
       <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Prosjekt/ArenaLogisticsDashboard/src/ALD Dokumentasjon/ArketyperTemplateVAQM.xlsx
+++ b/Prosjekt/ArenaLogisticsDashboard/src/ALD Dokumentasjon/ArketyperTemplateVAQM.xlsx
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,8 @@
     <col min="3" max="4" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="69.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
